--- a/data/rf_training/example_training_sample.xlsx
+++ b/data/rf_training/example_training_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\hispaniola_land_cover_mapping\data\rf_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51ED0C9-2794-459B-BB04-9D389503EF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4433F7-0EC2-4D28-B0D0-99CDC66E4B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -932,7 +932,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D37"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
